--- a/Manual vs LLM.xlsx
+++ b/Manual vs LLM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheun\OneDrive\Desktop\Green LLM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aw995\Desktop\Green-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6C1B3-C500-4562-A0C6-46E69D2142BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48598818-7B14-48F8-AB23-EE3F011DB8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +217,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,22 +410,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -496,7 +496,7 @@
         <v>2.7777799999999999E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1.70855831129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -559,11 +559,11 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <f>AVERAGE(B4:H4)</f>
+        <f t="shared" ref="I4:I12" si="1">AVERAGE(B4:H4)</f>
         <v>502.7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -589,7 +589,7 @@
         <v>2002.42</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(B5:H5)</f>
+        <f t="shared" si="1"/>
         <v>724.2828571428571</v>
       </c>
       <c r="L5" t="s">
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -639,7 +639,7 @@
         <v>4448.681803477356</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(B6:H6)</f>
+        <f t="shared" si="1"/>
         <v>1631.3421076186107</v>
       </c>
       <c r="M6">
@@ -663,7 +663,7 @@
         <v>3.4180811899290884</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="6">
-        <f>AVERAGE(B7:H7)</f>
+        <f t="shared" si="1"/>
         <v>23625.801799999997</v>
       </c>
       <c r="L7" t="s">
@@ -705,7 +705,7 @@
         <v>2.2216527019692949</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -738,7 +738,7 @@
         <v>195835.68799999999</v>
       </c>
       <c r="I8" s="6">
-        <f>AVERAGE(B8:H8)</f>
+        <f t="shared" si="1"/>
         <v>38182.711428571427</v>
       </c>
       <c r="L8" t="s">
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -793,7 +793,7 @@
         <v>1256412.2885453035</v>
       </c>
       <c r="I9" s="6">
-        <f>AVERAGE(B9:H9)</f>
+        <f t="shared" si="1"/>
         <v>247204.29477415973</v>
       </c>
       <c r="M9">
@@ -817,7 +817,7 @@
         <v>14.973359899834417</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -825,14 +825,26 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>34.299999999999997</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>35.700000000000003</v>
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
       </c>
       <c r="I10">
-        <f>AVERAGE(B10:H10)</f>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -842,7 +854,7 @@
         <v>6.4156451838609909</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -850,17 +862,29 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>11.86</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>11.86</v>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
       </c>
       <c r="I11">
-        <f>AVERAGE(B11:H11)</f>
-        <v>9.9066666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -893,14 +917,14 @@
         <v>53.265000000000001</v>
       </c>
       <c r="I12">
-        <f>AVERAGE(B12:H12)</f>
+        <f t="shared" si="1"/>
         <v>24.684714285714286</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -910,21 +934,37 @@
       </c>
       <c r="C13" s="2">
         <f>(C10+C11*(C9/(1000*1000)/$L$13))*(C6/1000)*C12*$N$2</f>
-        <v>3.6986088253196886E-5</v>
+        <v>1.5096723493285353E-5</v>
       </c>
       <c r="D13" s="2">
         <f>(D10+D11*(D9/(1000*1000)/$L$13))*(D6/1000)*$N$2</f>
-        <v>3.9503908113571024E-6</v>
+        <v>1.5496109938243688E-6</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:H13" si="2">(E10+E11*(E9/(1000*1000)/$L$13))*(E6/1000)*$N$2</f>
+        <v>1.5451251784140895E-6</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3863918578389288E-6</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7498856583497906E-5</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7882670467465705E-5</v>
       </c>
       <c r="I13" s="2">
         <f>SUM(B13:H13)</f>
-        <v>4.1518065717279096E-5</v>
+        <v>5.954096522705146E-5</v>
       </c>
       <c r="L13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -937,23 +977,23 @@
         <v>1.0535241761519998E-3</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="C14:H14" si="1">D2*$L$28*$L$2*$N$2</f>
+        <f t="shared" ref="D14:H14" si="3">D2*$L$28*$L$2*$N$2</f>
         <v>1.1224596479670001E-3</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.5939160084599988E-4</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1823621958890001E-3</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.194723039111E-3</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6634842474529997E-3</v>
       </c>
       <c r="I14" s="2">
@@ -961,7 +1001,7 @@
         <v>7.3870300762859994E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -971,37 +1011,37 @@
       </c>
       <c r="C15" s="5">
         <f>SUM(C3,C13,C14)</f>
-        <v>3.5989011600051969E-3</v>
+        <v>3.5770117952452852E-3</v>
       </c>
       <c r="D15" s="5">
         <f>SUM(D3,D13,D14)</f>
-        <v>3.7989330101283574E-3</v>
+        <v>3.7965322303108247E-3</v>
       </c>
       <c r="E15" s="5">
         <f>SUM(E3,E13,E14)</f>
-        <v>3.2436573171460001E-3</v>
+        <v>3.2452024423244141E-3</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="D15:H15" si="2">SUM(F3,F13,F14)</f>
-        <v>3.997510281339E-3</v>
+        <f t="shared" ref="F15:H15" si="4">SUM(F3,F13,F14)</f>
+        <v>4.0028966731968391E-3</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0393017036609996E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.0568005602444977E-3</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="2"/>
-        <v>5.6241610271029994E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.6420436975704652E-3</v>
       </c>
       <c r="I15" s="4">
         <f>SUM(B15:H15)</f>
-        <v>2.5016714990303279E-2</v>
+        <v>2.5034737889813051E-2</v>
       </c>
       <c r="L15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1011,37 +1051,37 @@
       </c>
       <c r="C16">
         <f>$L$25*C15</f>
-        <v>0.78096155172112769</v>
+        <v>0.77621155956822685</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:H16" si="3">$L$25*D15</f>
-        <v>0.82436846319785351</v>
+        <f t="shared" ref="D16:H16" si="5">$L$25*D15</f>
+        <v>0.82384749397744894</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>0.70387363782068202</v>
+        <f t="shared" si="5"/>
+        <v>0.70420892998439788</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0.86745973105056295</v>
+        <f t="shared" si="5"/>
+        <v>0.86862857808371408</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
-        <v>0.87652846969443687</v>
+        <f t="shared" si="5"/>
+        <v>0.880325721573056</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
-        <v>1.2204429428813508</v>
+        <f t="shared" si="5"/>
+        <v>1.2243234823727909</v>
       </c>
       <c r="I16">
         <f>SUM(B16:H16)</f>
-        <v>5.4286271528958112</v>
+        <v>5.4325381220894311</v>
       </c>
       <c r="L16">
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1090,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1108,7 +1148,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1125,7 +1165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1142,7 +1182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1159,18 +1199,18 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="L24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="C25" s="7"/>
       <c r="L25">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1178,7 +1218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="L28">
         <v>0.42</v>
       </c>

--- a/Manual vs LLM.xlsx
+++ b/Manual vs LLM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aw995\Desktop\Green-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48598818-7B14-48F8-AB23-EE3F011DB8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7382AD7-E7F4-4506-B625-1F4345BBEC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,10 +411,10 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -425,7 +425,7 @@
     <col min="14" max="14" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -496,7 +496,7 @@
         <v>2.7777799999999999E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1.70855831129E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -563,7 +563,7 @@
         <v>502.7</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3.4180811899290884</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -705,7 +705,7 @@
         <v>2.2216527019692949</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -817,7 +817,7 @@
         <v>14.973359899834417</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -854,7 +854,7 @@
         <v>6.4156451838609909</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -924,7 +924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -964,7 +964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>7.3870300762859994E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1126,11 +1126,14 @@
       <c r="D19">
         <v>5</v>
       </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
       <c r="L19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1142,13 +1145,16 @@
       </c>
       <c r="D20" s="7">
         <v>0.1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.22</v>
       </c>
       <c r="J20" s="2"/>
       <c r="L20">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1161,11 +1167,14 @@
       <c r="D21">
         <v>3</v>
       </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
       <c r="L21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1178,11 +1187,14 @@
       <c r="D22" s="7">
         <v>0.7</v>
       </c>
+      <c r="E22" s="7">
+        <v>0.66</v>
+      </c>
       <c r="L22">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1198,19 +1210,23 @@
         <f>(D19+D21)*$L$20</f>
         <v>1.7600000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="E23">
+        <f>(E19+E21)*$L$20</f>
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
       <c r="L24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
       <c r="C25" s="7"/>
       <c r="L25">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1218,7 +1234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
       <c r="L28">
         <v>0.42</v>
       </c>

--- a/Manual vs LLM.xlsx
+++ b/Manual vs LLM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa5fe2a5bf147a6/Desktop/Green LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_CF8FA6A7534C74F76944A01B7D57F0B67D1070FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57751BB0-F5EC-4FC3-A1E0-7B6C55C22F04}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_CF8FA6A7534C74F76944A01B7D57F0B67D1070FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141C59E9-9E76-4A6B-97D5-5439F5A9C6EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -226,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -240,9 +240,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -259,6 +258,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +443,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,8 +562,8 @@
         <v>3.9606767796499997E-3</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>1.70855831129E-2</v>
+        <f>SUM(B3:H3)</f>
+        <v>1.7588166848300002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1029,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:H15" si="4">SUM(B3,B13,B14)</f>
+        <f t="shared" ref="B15" si="4">SUM(B3,B13,B14)</f>
         <v>5.5433182455644821E-4</v>
       </c>
       <c r="C15" s="4">
@@ -1152,6 +1155,19 @@
       <c r="E19">
         <v>5</v>
       </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f>SUM(B19:H19)</f>
+        <v>31</v>
+      </c>
       <c r="L19" t="s">
         <v>31</v>
       </c>
@@ -1164,13 +1180,26 @@
         <v>1</v>
       </c>
       <c r="C20" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="D20" s="8">
-        <v>0.1</v>
-      </c>
       <c r="E20" s="8">
-        <v>0.22</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="8">
+        <f>AVERAGE(B20:H20)</f>
+        <v>0.15</v>
       </c>
       <c r="J20" s="2"/>
       <c r="L20">
@@ -1193,6 +1222,19 @@
       <c r="E21">
         <v>3</v>
       </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <f>SUM(B21:H21)</f>
+        <v>17</v>
+      </c>
       <c r="L21" t="s">
         <v>34</v>
       </c>
@@ -1208,10 +1250,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E22" s="8">
-        <v>0.67</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <f>AVERAGE(B22:H22)</f>
+        <v>0.29499999999999998</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -1237,6 +1292,22 @@
         <f>(E19+E21)*$L$20</f>
         <v>1.7600000000000001E-2</v>
       </c>
+      <c r="F23">
+        <f t="shared" ref="F23:H23" si="12">(F19+F21)*$L$20</f>
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="12"/>
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="12"/>
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I23">
+        <f>SUM(B23:H23)</f>
+        <v>0.10560000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1246,28 +1317,32 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f>C2*$L$36</f>
-        <v>842.08</v>
+        <f>C2*$L$36*(1-C20)</f>
+        <v>808.39679999999998</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="C24:H24" si="12">D2*$L$36</f>
+        <f t="shared" ref="D24:H24" si="13">D2*$L$36*(1-D20)</f>
         <v>897.18000000000006</v>
       </c>
       <c r="E24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>766.84</v>
       </c>
       <c r="F24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>945.06000000000006</v>
       </c>
       <c r="G24">
-        <f t="shared" si="12"/>
+        <f>G2*$L$36*(1-G20)</f>
         <v>954.94</v>
       </c>
       <c r="H24">
-        <f t="shared" si="12"/>
-        <v>1329.6200000000001</v>
+        <f>H2*$L$36*(1-H20)</f>
+        <v>1316.3238000000001</v>
+      </c>
+      <c r="I24">
+        <f>SUM(B24:H24)</f>
+        <v>5688.7406000000001</v>
       </c>
       <c r="L24" t="s">
         <v>37</v>
@@ -1303,6 +1378,10 @@
         <f>($L$32+$L$34)*(H2*$L$28)</f>
         <v>587.83199999999999</v>
       </c>
+      <c r="I25">
+        <f>SUM(B25:H25)</f>
+        <v>2163.5039999999999</v>
+      </c>
       <c r="L25">
         <v>217</v>
       </c>
@@ -1312,65 +1391,73 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <f>(1-B22)*B2+B25</f>
+        <f t="shared" ref="B26:H26" si="14">(1-B22)*B2+B25</f>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>(1-C22)*C2+C25</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>(1-D22)*D2+D25</f>
-        <v>1104.9480000000001</v>
+        <f t="shared" si="14"/>
+        <v>2757.6480000000001</v>
       </c>
       <c r="E26">
-        <f>(1-E22)*E2+E25</f>
-        <v>1004.9639999999999</v>
+        <f t="shared" si="14"/>
+        <v>2225.8540000000003</v>
       </c>
       <c r="F26">
-        <f>(1-F22)*F2+F25</f>
+        <f t="shared" si="14"/>
         <v>2904.8159999999998</v>
       </c>
       <c r="G26">
-        <f>(1-G22)*G2+G25</f>
+        <f t="shared" si="14"/>
         <v>2935.1840000000002</v>
       </c>
       <c r="H26">
-        <f>(1-H22)*H2+H25</f>
+        <f t="shared" si="14"/>
         <v>4086.8319999999999</v>
+      </c>
+      <c r="I26">
+        <f>SUM(B26:H26)</f>
+        <v>14910.334000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27">
         <f>B23+(B24+B26)*$L$2*$N$2</f>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:H27" si="13">C23+(C24+C26)*$L$2*$N$2</f>
-        <v>1.6353188540328002E-2</v>
+        <f t="shared" ref="C27:H27" si="15">C23+(C24+C26)*$L$2*$N$2</f>
+        <v>1.6315060998714881E-2</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="13"/>
-        <v>1.9866299479704801E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.1737065559649802E-2</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="13"/>
-        <v>1.9605585298911401E-2</v>
-      </c>
-      <c r="F27" s="11">
-        <f t="shared" si="13"/>
-        <v>4.3578492362765994E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.0987566057272901E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="15"/>
+        <v>2.19578492362766E-2</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="13"/>
-        <v>4.4034077727234007E-3</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="13"/>
-        <v>6.1311276548982E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.2003407772723402E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="15"/>
+        <v>2.3716077083135532E-2</v>
+      </c>
+      <c r="I27">
+        <f>SUM(B27:H27)</f>
+        <v>0.12891702670777314</v>
       </c>
       <c r="L27" t="s">
         <v>38</v>
@@ -1385,28 +1472,32 @@
         <v>0.47740000000000005</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:H28" si="14">C27*$L$25</f>
-        <v>3.5486419132511764</v>
+        <f t="shared" ref="C28:H28" si="16">C27*$L$25</f>
+        <v>3.5403682367211293</v>
       </c>
       <c r="D28">
-        <f t="shared" si="14"/>
-        <v>4.3109869870959416</v>
+        <f t="shared" si="16"/>
+        <v>4.7169432264440072</v>
       </c>
       <c r="E28">
-        <f t="shared" si="14"/>
-        <v>4.2544120098637741</v>
+        <f t="shared" si="16"/>
+        <v>4.5543018344282196</v>
       </c>
       <c r="F28">
-        <f t="shared" si="14"/>
-        <v>0.94565328427202211</v>
+        <f t="shared" si="16"/>
+        <v>4.7648532842720224</v>
       </c>
       <c r="G28">
-        <f t="shared" si="14"/>
-        <v>0.95553948668097799</v>
+        <f t="shared" si="16"/>
+        <v>4.7747394866809785</v>
       </c>
       <c r="H28">
-        <f t="shared" si="14"/>
-        <v>1.3304547011129093</v>
+        <f t="shared" si="16"/>
+        <v>5.1463887270404101</v>
+      </c>
+      <c r="I28">
+        <f>SUM(B28:H28)</f>
+        <v>27.974994795586767</v>
       </c>
       <c r="L28" s="10">
         <v>0.42</v>

--- a/Manual vs LLM.xlsx
+++ b/Manual vs LLM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa5fe2a5bf147a6/Desktop/Green LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_CF8FA6A7534C74F76944A01B7D57F0B67D1070FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141C59E9-9E76-4A6B-97D5-5439F5A9C6EF}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="11_CF8FA6A7534C74F76944A01B7D57F0B67D1070FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B0F363E-FCDC-4153-BA03-CE02C71A53E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -242,6 +242,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,7 +444,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I28" sqref="A18:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,31 +534,31 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:I3" si="0">$L$2*B2*$N$2</f>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:H3" si="0">$L$2*B2*$N$2</f>
         <v>5.0258373540000003E-4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <f t="shared" si="0"/>
         <v>2.5083908956000001E-3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <f t="shared" si="0"/>
         <v>2.6725229713500001E-3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>2.2842657163E-3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>2.8151480854499999E-3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>2.84457866455E-3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>3.9606767796499997E-3</v>
       </c>
@@ -955,11 +956,11 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:H13" si="2">(B10+B11*(B9/(1024*1024)/$L$13))*(B6/1000)*B12*$N$2</f>
+        <f>(B10+B11*(B9/(1024*1024)/$L$13))*(B6/1000)*B12*$N$2</f>
         <v>3.3653234201356749E-7</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B13:H13" si="2">(C10+C11*(C9/(1024*1024)/$L$13))*(C6/1000)*C12*$N$2</f>
         <v>1.4607142283659242E-6</v>
       </c>
       <c r="D13" s="2">
@@ -1032,31 +1033,31 @@
         <v>27</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15" si="4">SUM(B3,B13,B14)</f>
+        <f>SUM(B3,B13,B14)</f>
         <v>5.5433182455644821E-4</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ref="C15" si="5">SUM(C3,C13,C14)</f>
+        <f t="shared" ref="C15" si="4">SUM(C3,C13,C14)</f>
         <v>2.7664888704028536E-3</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15" si="6">SUM(D3,D13,D14)</f>
+        <f t="shared" ref="D15" si="5">SUM(D3,D13,D14)</f>
         <v>2.949856786441309E-3</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15" si="7">SUM(E3,E13,E14)</f>
+        <f t="shared" ref="E15" si="6">SUM(E3,E13,E14)</f>
         <v>2.521466476350129E-3</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15" si="8">SUM(F3,F13,F14)</f>
+        <f t="shared" ref="F15" si="7">SUM(F3,F13,F14)</f>
         <v>3.1132312456202465E-3</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="G15" si="9">SUM(G3,G13,G14)</f>
+        <f t="shared" ref="G15" si="8">SUM(G3,G13,G14)</f>
         <v>3.2129328311475682E-3</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" ref="H15" si="10">SUM(H3,H13,H14)</f>
+        <f t="shared" ref="H15" si="9">SUM(H3,H13,H14)</f>
         <v>4.4613110969763687E-3</v>
       </c>
       <c r="I15" s="4">
@@ -1072,36 +1073,36 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:H16" si="11">$L$25*B15</f>
-        <v>0.12029000592874926</v>
+        <f t="shared" ref="B16:H16" si="10">$L$25*B15</f>
+        <v>0.14966959263024102</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="11"/>
-        <v>0.60032808487741929</v>
+        <f t="shared" si="10"/>
+        <v>0.74695199500877052</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="11"/>
-        <v>0.64011892265776404</v>
+        <f t="shared" si="10"/>
+        <v>0.79646133233915339</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="11"/>
-        <v>0.54715822536797798</v>
+        <f t="shared" si="10"/>
+        <v>0.68079594861453485</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="11"/>
-        <v>0.67557118029959351</v>
+        <f t="shared" si="10"/>
+        <v>0.84057243631746659</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="11"/>
-        <v>0.69720642435902236</v>
+        <f t="shared" si="10"/>
+        <v>0.86749186440984338</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="11"/>
-        <v>0.96810450804387205</v>
+        <f t="shared" si="10"/>
+        <v>1.2045539961836196</v>
       </c>
       <c r="I16" s="9">
         <f>SUM(B16:H16)</f>
-        <v>4.2487773515343985</v>
+        <v>5.2864971655036292</v>
       </c>
       <c r="L16" s="10">
         <v>0.1</v>
@@ -1293,19 +1294,19 @@
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:H23" si="12">(F19+F21)*$L$20</f>
+        <f t="shared" ref="F23:H23" si="11">(F19+F21)*$L$20</f>
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="I23">
-        <f>SUM(B23:H23)</f>
+        <f t="shared" ref="I23:I28" si="12">SUM(B23:H23)</f>
         <v>0.10560000000000001</v>
       </c>
     </row>
@@ -1316,32 +1317,32 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <f>C2*$L$36*(1-C20)</f>
         <v>808.39679999999998</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:H24" si="13">D2*$L$36*(1-D20)</f>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:F24" si="13">D2*$L$36*(1-D20)</f>
         <v>897.18000000000006</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <f t="shared" si="13"/>
         <v>766.84</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <f t="shared" si="13"/>
         <v>945.06000000000006</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <f>G2*$L$36*(1-G20)</f>
         <v>954.94</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <f>H2*$L$36*(1-H20)</f>
         <v>1316.3238000000001</v>
       </c>
-      <c r="I24">
-        <f>SUM(B24:H24)</f>
+      <c r="I24" s="6">
+        <f t="shared" si="12"/>
         <v>5688.7406000000001</v>
       </c>
       <c r="L24" t="s">
@@ -1358,32 +1359,32 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <f>($L$32+$L$34)*(D2*$L$28)</f>
         <v>396.64800000000002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <f>($L$32+$L$34)*(E2*$L$28)</f>
         <v>339.024</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <f>($L$32+$L$34)*(F2*$L$28)</f>
         <v>417.81600000000003</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <f>($L$32+$L$34)*(G2*$L$28)</f>
         <v>422.18400000000003</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <f>($L$32+$L$34)*(H2*$L$28)</f>
         <v>587.83199999999999</v>
       </c>
-      <c r="I25">
-        <f>SUM(B25:H25)</f>
+      <c r="I25" s="6">
+        <f t="shared" si="12"/>
         <v>2163.5039999999999</v>
       </c>
       <c r="L25">
-        <v>217</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1398,29 +1399,29 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="14"/>
-        <v>2757.6480000000001</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="14"/>
-        <v>2225.8540000000003</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="14"/>
-        <v>2904.8159999999998</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="14"/>
-        <v>2935.1840000000002</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="14"/>
-        <v>4086.8319999999999</v>
-      </c>
-      <c r="I26">
-        <f>SUM(B26:H26)</f>
-        <v>14910.334000000001</v>
+      <c r="D26" s="6">
+        <f>(1-D22)*D2+D25 - D24</f>
+        <v>1860.4680000000001</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" ref="E26:H26" si="15">(1-E22)*E2+E25 - E24</f>
+        <v>1459.0140000000001</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="15"/>
+        <v>1959.7559999999999</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="15"/>
+        <v>1980.2440000000001</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="15"/>
+        <v>2770.5081999999998</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="12"/>
+        <v>10029.9902</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1432,32 +1433,32 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:H27" si="15">C23+(C24+C26)*$L$2*$N$2</f>
+        <f>C23+(C24+C26)*$L$2*$N$2</f>
         <v>1.6315060998714881E-2</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="15"/>
-        <v>2.1737065559649802E-2</v>
+        <f>D23+(D24+D26)*$L$2*$N$2</f>
+        <v>2.07215068305368E-2</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="15"/>
-        <v>2.0987566057272901E-2</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="15"/>
-        <v>2.19578492362766E-2</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="15"/>
-        <v>2.2003407772723402E-2</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="15"/>
-        <v>2.3716077083135532E-2</v>
-      </c>
-      <c r="I27">
-        <f>SUM(B27:H27)</f>
-        <v>0.12891702670777314</v>
+        <f t="shared" ref="C27:H27" si="16">E23+(E24+E26)*$L$2*$N$2</f>
+        <v>2.0119545085078901E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="16"/>
+        <v>2.0888092963805602E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="16"/>
+        <v>2.09224678801944E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="16"/>
+        <v>2.2226070478631201E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="12"/>
+        <v>0.1233927442369618</v>
       </c>
       <c r="L27" t="s">
         <v>38</v>
@@ -1469,35 +1470,35 @@
       </c>
       <c r="B28">
         <f>B27*$L$25</f>
-        <v>0.47740000000000005</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:H28" si="16">C27*$L$25</f>
-        <v>3.5403682367211293</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="16"/>
-        <v>4.7169432264440072</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="16"/>
-        <v>4.5543018344282196</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="16"/>
-        <v>4.7648532842720224</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="16"/>
-        <v>4.7747394866809785</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="16"/>
-        <v>5.1463887270404101</v>
-      </c>
-      <c r="I28">
-        <f>SUM(B28:H28)</f>
-        <v>27.974994795586767</v>
+        <v>0.59400000000000008</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" ref="C28:H28" si="17">C27*$L$25</f>
+        <v>4.4050664696530175</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="17"/>
+        <v>5.5948068442449364</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="17"/>
+        <v>5.4322771729713031</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="17"/>
+        <v>5.6397851002275123</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="17"/>
+        <v>5.6490663276524877</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="17"/>
+        <v>6.0010390292304248</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="12"/>
+        <v>33.316040943979687</v>
       </c>
       <c r="L28" s="10">
         <v>0.42</v>

--- a/Manual vs LLM.xlsx
+++ b/Manual vs LLM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa5fe2a5bf147a6/Desktop/Green LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="11_CF8FA6A7534C74F76944A01B7D57F0B67D1070FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F60E148B-886E-4950-B725-292F7191BF00}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="11_CF8FA6A7534C74F76944A01B7D57F0B67D1070FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5B4F2E1-F86B-49A6-BD48-9B752778A35C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,6 +235,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -852,7 +856,7 @@
       </c>
       <c r="G18" s="8">
         <f>AVERAGE(B18:F18)</f>
-        <v>0.20800000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="L18" t="s">
         <v>20</v>
@@ -865,21 +869,23 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" s="11">
+        <f>(1+1+2)/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>3</v>
+      <c r="E19" s="11">
+        <f>(3+1+1)/3</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
         <f>SUM(B19:F19)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -899,14 +905,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>6.5000000000000002E-2</v>
+        <f>(6.5% + 100% + 100%)/3</f>
+        <v>0.68833333333333335</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
       </c>
       <c r="G20" s="8">
         <f>AVERAGE(B20:F20)</f>
-        <v>0.41299999999999998</v>
+        <v>0.53766666666666674</v>
       </c>
       <c r="H20" s="8"/>
       <c r="J20" s="2"/>
@@ -922,25 +929,25 @@
         <f>(B17+B19)*$L$20</f>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <f>(C17+C19)*$L$20</f>
-        <v>7.6999999999999999E-2</v>
+        <v>6.9666666666666655E-2</v>
       </c>
       <c r="D21">
         <f>(D17+D19)*$L$20</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <f>(E17+E19)*$L$20</f>
-        <v>8.7999999999999995E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="F21">
         <f t="shared" ref="F21" si="1">(F17+F19)*$L$20</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G21">
-        <f>SUM(B21:F21)</f>
-        <v>0.35199999999999998</v>
+      <c r="G21" s="9">
+        <f t="shared" ref="G21:G26" si="2">SUM(B21:F21)</f>
+        <v>0.32999999999999996</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
@@ -955,7 +962,7 @@
       </c>
       <c r="C22" s="6">
         <f>C2*$L$36*(1-C18)</f>
-        <v>808.39679999999998</v>
+        <v>842.08</v>
       </c>
       <c r="D22" s="6">
         <f>D2*$L$36*(1-D18)</f>
@@ -970,8 +977,8 @@
         <v>945.06000000000006</v>
       </c>
       <c r="G22" s="6">
-        <f>SUM(B22:F22)</f>
-        <v>3417.4767999999999</v>
+        <f t="shared" si="2"/>
+        <v>3451.1600000000003</v>
       </c>
       <c r="H22" s="8"/>
       <c r="L22">
@@ -1001,7 +1008,7 @@
         <v>417.81600000000003</v>
       </c>
       <c r="G23" s="6">
-        <f>SUM(B23:F23)</f>
+        <f t="shared" si="2"/>
         <v>1153.4880000000001</v>
       </c>
     </row>
@@ -1023,15 +1030,15 @@
       </c>
       <c r="E24" s="6">
         <f>(1-E20)*E2+E23 - E22</f>
-        <v>1459.0140000000001</v>
+        <v>201.12733333333324</v>
       </c>
       <c r="F24" s="6">
         <f>(1-F20)*F2+F23 - F22</f>
         <v>1959.7559999999999</v>
       </c>
       <c r="G24" s="6">
-        <f>SUM(B24:F24)</f>
-        <v>5279.2379999999994</v>
+        <f t="shared" si="2"/>
+        <v>4021.3513333333331</v>
       </c>
       <c r="H24" s="6"/>
       <c r="L24" t="s">
@@ -1048,23 +1055,23 @@
       </c>
       <c r="C25" s="5">
         <f>C21+(C22+C24)*$L$2*$N$2</f>
-        <v>7.7915060998714883E-2</v>
+        <v>7.0619855206994653E-2</v>
       </c>
       <c r="D25" s="5">
         <f>D21+(D22+D24)*$L$2*$N$2</f>
         <v>9.1121506830536797E-2</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:F25" si="2">E21+(E22+E24)*$L$2*$N$2</f>
-        <v>9.0519545085078895E-2</v>
+        <f t="shared" ref="E25:F25" si="3">E21+(E22+E24)*$L$2*$N$2</f>
+        <v>7.4429019455251905E-2</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>9.1288092963805592E-2</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>9.1288092963805592E-2</v>
-      </c>
-      <c r="G25" s="5">
-        <f>SUM(B25:F25)</f>
-        <v>0.36184420587813615</v>
+        <v>0.33845847445658894</v>
       </c>
       <c r="H25" s="6"/>
       <c r="L25">
@@ -1080,24 +1087,24 @@
         <v>2.387</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26:F26" si="3">C25*$L$25</f>
-        <v>16.907568236721129</v>
+        <f t="shared" ref="C26:F26" si="4">C25*$L$25</f>
+        <v>15.32450857991784</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.773366982226484</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="3"/>
-        <v>19.642741283462119</v>
+        <f t="shared" si="4"/>
+        <v>16.151097221789662</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.809516173145813</v>
       </c>
       <c r="G26" s="11">
-        <f>SUM(B26:F26)</f>
-        <v>78.520192675555535</v>
+        <f t="shared" si="2"/>
+        <v>73.445488957079803</v>
       </c>
       <c r="H26" s="6"/>
     </row>
